--- a/data/trans_orig/P1415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3AC2081-60A9-4349-8952-DF4B8D2493C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00EBCE73-F669-4A5E-BE38-B75E48626F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FA47192-F282-45D1-AB75-CD8811F7204D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7DB3155-5476-4514-9588-F3F467054F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="281">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -97,730 +97,751 @@
     <t>0,19%</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
     <t>1,7%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
   </si>
   <si>
     <t>0,14%</t>
@@ -1271,7 +1292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9055A3-20BA-4457-A6D0-898951E0655A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D631EA-E2FF-42EF-8D67-0B1B30406106}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1858,13 +1879,13 @@
         <v>6935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1873,13 +1894,13 @@
         <v>9891</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1888,13 +1909,13 @@
         <v>16826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1930,13 @@
         <v>674928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>656</v>
@@ -1924,13 +1945,13 @@
         <v>699683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -1939,13 +1960,13 @@
         <v>1374611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2001,7 +2022,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2019,7 +2040,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2034,7 +2055,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2049,7 +2070,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,13 +2085,13 @@
         <v>10423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2079,13 +2100,13 @@
         <v>8339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2094,13 +2115,13 @@
         <v>18762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2136,13 @@
         <v>604194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H18" s="7">
         <v>531</v>
@@ -2130,13 +2151,13 @@
         <v>605925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M18" s="7">
         <v>1071</v>
@@ -2145,13 +2166,13 @@
         <v>1210118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,7 +2228,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2240,7 +2261,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2255,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2291,13 @@
         <v>8576</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -2285,13 +2306,13 @@
         <v>6066</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M21" s="7">
         <v>13</v>
@@ -2300,13 +2321,13 @@
         <v>14641</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2342,13 @@
         <v>420853</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -2336,13 +2357,13 @@
         <v>441734</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>786</v>
@@ -2351,13 +2372,13 @@
         <v>862588</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,7 +2434,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2431,7 +2452,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2461,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2497,13 @@
         <v>26303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2491,13 +2512,13 @@
         <v>6423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2506,13 +2527,13 @@
         <v>32726</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2548,13 @@
         <v>533334</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>688</v>
@@ -2542,13 +2563,13 @@
         <v>736552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>1168</v>
@@ -2557,13 +2578,13 @@
         <v>1269886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,7 +2658,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2652,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2667,7 +2688,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2703,13 @@
         <v>56970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -2697,13 +2718,13 @@
         <v>37129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>85</v>
@@ -2712,13 +2733,13 @@
         <v>94099</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2754,13 @@
         <v>3369809</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>3261</v>
@@ -2748,28 +2769,28 @@
         <v>3517969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>6420</v>
       </c>
       <c r="N30" s="7">
-        <v>6887778</v>
+        <v>6887779</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,7 +2832,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -2825,7 +2846,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2847,7 +2868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52300EC1-3347-45BA-93F0-B872FDF03AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F9E5B3-63F8-4255-8B60-3B57C92D184B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2864,7 +2885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2992,7 +3013,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3007,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3043,13 @@
         <v>897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3037,13 +3058,13 @@
         <v>3822</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3052,13 +3073,13 @@
         <v>4719</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,7 +3094,7 @@
         <v>418566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>152</v>
@@ -3088,13 +3109,13 @@
         <v>391933</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -3103,13 +3124,13 @@
         <v>810499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3219,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3228,13 +3249,13 @@
         <v>3025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3243,13 +3264,13 @@
         <v>8339</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3258,13 +3279,13 @@
         <v>11365</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3300,13 @@
         <v>587471</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>570</v>
@@ -3294,13 +3315,13 @@
         <v>555205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>1134</v>
@@ -3309,13 +3330,13 @@
         <v>1142675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,7 +3410,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3434,13 +3455,13 @@
         <v>5394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3449,13 +3470,13 @@
         <v>6671</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3464,13 +3485,13 @@
         <v>12065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3506,13 @@
         <v>663703</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>658</v>
@@ -3500,13 +3521,13 @@
         <v>654715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1290</v>
@@ -3515,13 +3536,13 @@
         <v>1318418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,7 +3598,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3595,7 +3616,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3610,7 +3631,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3625,7 +3646,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3661,13 @@
         <v>6210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3655,13 +3676,13 @@
         <v>10416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3670,13 +3691,13 @@
         <v>16626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3712,13 @@
         <v>639838</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="H18" s="7">
         <v>592</v>
@@ -3706,28 +3727,28 @@
         <v>638661</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="M18" s="7">
         <v>1168</v>
       </c>
       <c r="N18" s="7">
-        <v>1278499</v>
+        <v>1278500</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,7 +3790,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -3783,7 +3804,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3816,7 +3837,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3846,13 +3867,13 @@
         <v>6585</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -3861,13 +3882,13 @@
         <v>10303</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -3876,13 +3897,13 @@
         <v>16889</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3918,13 @@
         <v>471333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>424</v>
@@ -3912,13 +3933,13 @@
         <v>486546</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>842</v>
@@ -3927,13 +3948,13 @@
         <v>957878</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,7 +4010,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4007,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4052,13 +4073,13 @@
         <v>13349</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4067,13 +4088,13 @@
         <v>16891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -4082,13 +4103,13 @@
         <v>30240</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4124,13 @@
         <v>577979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>641</v>
@@ -4118,13 +4139,13 @@
         <v>761040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -4133,13 +4154,13 @@
         <v>1339019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,7 +4234,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4228,7 +4249,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4243,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4279,13 @@
         <v>35461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4273,13 +4294,13 @@
         <v>56443</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>88</v>
@@ -4288,13 +4309,13 @@
         <v>91903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4330,13 @@
         <v>3358889</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H30" s="7">
         <v>3285</v>
@@ -4324,13 +4345,13 @@
         <v>3488099</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>6481</v>
@@ -4339,13 +4360,13 @@
         <v>6846989</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,7 +4422,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7D8F0-9819-4516-AB53-74F0597D5FBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A01D8DB-2285-48CF-B09A-1D7BA6A77279}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4440,7 +4461,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4550,7 +4571,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -4565,7 +4586,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>34</v>
@@ -4580,7 +4601,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -4604,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4619,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4634,7 +4655,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,7 +4676,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4670,7 +4691,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4685,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,7 +4777,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -4771,7 +4792,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -4786,7 +4807,7 @@
         <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>34</v>
@@ -4810,7 +4831,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4825,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4840,7 +4861,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4876,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4891,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,7 +4983,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>34</v>
@@ -4977,7 +4998,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>157</v>
+        <v>265</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -4992,7 +5013,7 @@
         <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>34</v>
@@ -5016,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5031,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5046,7 +5067,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,7 +5088,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5082,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5097,7 +5118,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5174,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5168,7 +5189,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>34</v>
@@ -5198,7 +5219,7 @@
         <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>34</v>
@@ -5252,7 +5273,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5324,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,7 +5380,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5374,7 +5395,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>34</v>
@@ -5404,7 +5425,7 @@
         <v>30</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -5458,7 +5479,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,7 +5530,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +5586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5595,7 +5616,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>34</v>
@@ -5610,7 +5631,7 @@
         <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -5649,7 +5670,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5664,7 +5685,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5721,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5715,7 +5736,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,7 +5807,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>34</v>
@@ -5801,7 +5822,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>34</v>
@@ -5816,7 +5837,7 @@
         <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>34</v>
@@ -5840,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5855,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5870,7 +5891,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,7 +5912,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5906,7 +5927,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5921,7 +5942,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5977,7 +5998,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00EBCE73-F669-4A5E-BE38-B75E48626F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C007D7F8-35EE-46FC-9591-5AF0F2183994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B7DB3155-5476-4514-9588-F3F467054F6F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EEB3AF48-6E66-472A-88BC-B427A925A0D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="259">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -97,757 +97,691 @@
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1292,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D631EA-E2FF-42EF-8D67-0B1B30406106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01726DCD-39A8-40BA-868D-94719072FE98}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1706,10 +1640,10 @@
         <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,10 +1658,10 @@
         <v>685178</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1739,13 +1673,13 @@
         <v>605775</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>1232</v>
@@ -1754,13 +1688,13 @@
         <v>1290954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1816,7 +1750,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1879,13 +1813,13 @@
         <v>6935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -1894,13 +1828,13 @@
         <v>9891</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1909,13 +1843,13 @@
         <v>16826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1930,13 +1864,13 @@
         <v>674928</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>656</v>
@@ -1945,13 +1879,13 @@
         <v>699683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -1960,13 +1894,13 @@
         <v>1374611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,7 +1956,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2040,7 +1974,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2055,7 +1989,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2070,7 +2004,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2085,13 +2019,13 @@
         <v>10423</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -2100,13 +2034,13 @@
         <v>8339</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2115,13 +2049,13 @@
         <v>18762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2070,13 @@
         <v>604194</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>531</v>
@@ -2151,13 +2085,13 @@
         <v>605925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M18" s="7">
         <v>1071</v>
@@ -2166,10 +2100,10 @@
         <v>1210118</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>92</v>
@@ -2324,10 +2258,10 @@
         <v>102</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2276,13 @@
         <v>420853</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>400</v>
@@ -2357,13 +2291,13 @@
         <v>441734</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>786</v>
@@ -2372,13 +2306,13 @@
         <v>862588</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,7 +2368,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2452,7 +2386,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2482,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,13 +2431,13 @@
         <v>26303</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -2512,13 +2446,13 @@
         <v>6423</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -2527,13 +2461,13 @@
         <v>32726</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2482,13 @@
         <v>533334</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H26" s="7">
         <v>688</v>
@@ -2563,13 +2497,13 @@
         <v>736552</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>1168</v>
@@ -2578,13 +2512,13 @@
         <v>1269886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2673,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2688,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2703,13 +2637,13 @@
         <v>56970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -2718,13 +2652,13 @@
         <v>37129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M29" s="7">
         <v>85</v>
@@ -2736,10 +2670,10 @@
         <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2754,13 +2688,13 @@
         <v>3369809</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7">
         <v>3261</v>
@@ -2769,28 +2703,28 @@
         <v>3517969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="M30" s="7">
         <v>6420</v>
       </c>
       <c r="N30" s="7">
-        <v>6887779</v>
+        <v>6887778</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,7 +2766,7 @@
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -2846,7 +2780,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2868,7 +2802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F9E5B3-63F8-4255-8B60-3B57C92D184B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1972A4B2-FC7A-481E-B9FF-87798ED0186E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2885,7 +2819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3043,13 +2977,13 @@
         <v>897</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3058,13 +2992,13 @@
         <v>3822</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3073,13 +3007,13 @@
         <v>4719</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,10 +3028,10 @@
         <v>418566</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>30</v>
@@ -3109,13 +3043,13 @@
         <v>391933</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -3124,13 +3058,13 @@
         <v>810499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3234,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3183,13 @@
         <v>3025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3264,13 +3198,13 @@
         <v>8339</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -3279,13 +3213,13 @@
         <v>11365</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3234,13 @@
         <v>587471</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>570</v>
@@ -3315,13 +3249,13 @@
         <v>555205</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>1134</v>
@@ -3330,13 +3264,13 @@
         <v>1142675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3326,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3410,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3455,13 +3389,13 @@
         <v>5394</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3470,13 +3404,13 @@
         <v>6671</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3485,13 +3419,13 @@
         <v>12065</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3440,13 @@
         <v>663703</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>658</v>
@@ -3521,13 +3455,13 @@
         <v>654715</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1290</v>
@@ -3536,13 +3470,13 @@
         <v>1318418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,7 +3532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3616,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3631,7 +3565,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3646,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3595,13 @@
         <v>6210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -3676,13 +3610,13 @@
         <v>10416</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3691,13 +3625,13 @@
         <v>16626</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3646,13 @@
         <v>639838</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="H18" s="7">
         <v>592</v>
@@ -3727,28 +3661,28 @@
         <v>638661</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M18" s="7">
         <v>1168</v>
       </c>
       <c r="N18" s="7">
-        <v>1278500</v>
+        <v>1278499</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3724,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -3837,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3867,13 +3801,13 @@
         <v>6585</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -3882,13 +3816,13 @@
         <v>10303</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -3897,13 +3831,13 @@
         <v>16889</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>216</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3852,13 @@
         <v>471333</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H22" s="7">
         <v>424</v>
@@ -3933,13 +3867,13 @@
         <v>486546</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>842</v>
@@ -3948,13 +3882,13 @@
         <v>957878</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +3944,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4028,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4073,13 +4007,13 @@
         <v>13349</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4088,13 +4022,13 @@
         <v>16891</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>228</v>
+        <v>23</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -4103,13 +4037,13 @@
         <v>30240</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4058,13 @@
         <v>577979</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="H26" s="7">
         <v>641</v>
@@ -4139,13 +4073,13 @@
         <v>761040</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -4154,13 +4088,13 @@
         <v>1339019</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4249,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4264,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4213,13 @@
         <v>35461</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>243</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -4294,13 +4228,13 @@
         <v>56443</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M29" s="7">
         <v>88</v>
@@ -4309,13 +4243,13 @@
         <v>91903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4264,13 @@
         <v>3358889</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="H30" s="7">
         <v>3285</v>
@@ -4345,13 +4279,13 @@
         <v>3488099</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="M30" s="7">
         <v>6481</v>
@@ -4360,13 +4294,13 @@
         <v>6846989</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>256</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4356,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4444,7 +4378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A01D8DB-2285-48CF-B09A-1D7BA6A77279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2CB773-EB12-41FC-997C-0AF26D7A2CC7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4461,7 +4395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4571,7 +4505,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -4586,7 +4520,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>34</v>
@@ -4601,7 +4535,7 @@
         <v>30</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>34</v>
@@ -4625,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4640,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4655,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4691,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4706,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4777,7 +4711,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>34</v>
@@ -4792,7 +4726,7 @@
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>34</v>
@@ -4807,7 +4741,7 @@
         <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>34</v>
@@ -4831,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4846,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4861,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,7 +4816,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4897,7 +4831,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4912,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,7 +4902,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4983,7 +4917,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>34</v>
@@ -4998,7 +4932,7 @@
         <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>34</v>
@@ -5013,7 +4947,7 @@
         <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>34</v>
@@ -5037,7 +4971,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5052,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5067,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5103,7 +5037,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5118,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,7 +5108,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5189,7 +5123,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>34</v>
@@ -5204,7 +5138,7 @@
         <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>34</v>
@@ -5213,13 +5147,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>34</v>
@@ -5258,7 +5192,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5273,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5324,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,7 +5300,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>34</v>
@@ -5395,7 +5329,7 @@
         <v>30</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>34</v>
@@ -5425,7 +5359,7 @@
         <v>30</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>34</v>
@@ -5479,7 +5413,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,7 +5520,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5595,7 +5529,7 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5616,7 +5550,7 @@
         <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>34</v>
@@ -5631,7 +5565,7 @@
         <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>34</v>
@@ -5670,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5685,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5736,7 +5670,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,7 +5682,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>34</v>
@@ -5807,7 +5741,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>34</v>
@@ -5822,7 +5756,7 @@
         <v>30</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>34</v>
@@ -5831,13 +5765,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>34</v>
@@ -5861,7 +5795,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5876,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5891,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5927,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5942,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,7 +5918,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>34</v>
@@ -5998,7 +5932,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1415-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1415-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C15E02A9-A223-4A24-8FC9-7B7AFE99AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9D3464-9C4F-4A7C-A2F5-7EDC62D8F424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{557BF0D0-64AD-4F60-BDB0-4ECDF651CA3E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{890ED1D2-46CF-495E-9A0D-61EBA70B1046}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="255">
   <si>
     <t>Población con diagnóstico de problemas crónicos de la piel en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +132,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,28%</t>
@@ -177,7 +177,7 @@
     <t>98,96%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -228,7 +228,7 @@
     <t>99,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -279,7 +279,7 @@
     <t>99,15%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -336,367 +336,442 @@
     <t>99,06%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de problemas crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -711,9 +786,6 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>1,62%</t>
   </si>
   <si>
@@ -727,9 +799,6 @@
   </si>
   <si>
     <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -1144,8 +1213,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D420F3FB-2243-4F2A-BDD0-7264A97679B4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69BFF3AA-7BE1-4AF6-936F-A891FC7C5226}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2037,10 +2106,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>26303</v>
+        <v>13273</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>100</v>
@@ -2052,31 +2121,31 @@
         <v>102</v>
       </c>
       <c r="H19" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>6423</v>
+        <v>1953</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>14</v>
+      </c>
+      <c r="N19" s="7">
+        <v>15226</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M19" s="7">
-        <v>30</v>
-      </c>
-      <c r="N19" s="7">
-        <v>32726</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>107</v>
@@ -2088,10 +2157,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>480</v>
+        <v>270</v>
       </c>
       <c r="D20" s="7">
-        <v>533334</v>
+        <v>296513</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>108</v>
@@ -2103,10 +2172,10 @@
         <v>110</v>
       </c>
       <c r="H20" s="7">
-        <v>688</v>
+        <v>342</v>
       </c>
       <c r="I20" s="7">
-        <v>736552</v>
+        <v>352043</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>111</v>
@@ -2115,22 +2184,22 @@
         <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="7">
+        <v>612</v>
+      </c>
+      <c r="N20" s="7">
+        <v>648556</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="7">
-        <v>1168</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1269886</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,10 +2208,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2154,10 +2223,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2169,10 +2238,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2186,55 +2255,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7">
-        <v>56970</v>
+        <v>13030</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="7">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>37129</v>
+        <v>4470</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="7">
+        <v>16</v>
+      </c>
+      <c r="N22" s="7">
+        <v>17500</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="M22" s="7">
-        <v>85</v>
-      </c>
-      <c r="N22" s="7">
-        <v>94099</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,49 +2312,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3159</v>
+        <v>210</v>
       </c>
       <c r="D23" s="7">
-        <v>3369809</v>
+        <v>236821</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="H23" s="7">
-        <v>3261</v>
+        <v>346</v>
       </c>
       <c r="I23" s="7">
-        <v>3517969</v>
+        <v>384509</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="7">
+        <v>556</v>
+      </c>
+      <c r="N23" s="7">
+        <v>621330</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="7">
-        <v>6420</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6887778</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="P23" s="7" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,63 +2363,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7">
+        <v>56970</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="7">
+        <v>35</v>
+      </c>
+      <c r="I25" s="7">
+        <v>37129</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="7">
+        <v>85</v>
+      </c>
+      <c r="N25" s="7">
+        <v>94099</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3159</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3369809</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3261</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3517969</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6420</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6887778</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2363,8 +2588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525E2B30-F088-4A59-967F-F2E866D33628}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BB4575-C260-4FA8-8A1E-03152D3F8A1D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2380,7 +2605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2487,13 +2712,13 @@
         <v>897</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2505,10 +2730,10 @@
         <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2517,13 +2742,13 @@
         <v>4719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,10 +2763,10 @@
         <v>418566</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -2556,10 +2781,10 @@
         <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>792</v>
@@ -2568,13 +2793,13 @@
         <v>810499</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2867,13 @@
         <v>3025</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -2657,13 +2882,13 @@
         <v>8339</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -2672,13 +2897,13 @@
         <v>11365</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2918,13 @@
         <v>587471</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -2708,13 +2933,13 @@
         <v>555205</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>1134</v>
@@ -2723,13 +2948,13 @@
         <v>1142675</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +3022,13 @@
         <v>5394</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2812,13 +3037,13 @@
         <v>6671</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
@@ -2827,13 +3052,13 @@
         <v>12065</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +3073,13 @@
         <v>663703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>658</v>
@@ -2863,10 +3088,10 @@
         <v>654715</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>56</v>
@@ -2878,13 +3103,13 @@
         <v>1318418</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +3177,13 @@
         <v>6210</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2967,13 +3192,13 @@
         <v>10416</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -2982,13 +3207,13 @@
         <v>16626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,10 +3228,10 @@
         <v>639838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>95</v>
@@ -3018,13 +3243,13 @@
         <v>638661</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>1168</v>
@@ -3033,13 +3258,13 @@
         <v>1278499</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3332,13 @@
         <v>6585</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3122,13 +3347,13 @@
         <v>10303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -3137,13 +3362,13 @@
         <v>16889</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,13 +3383,13 @@
         <v>471333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>424</v>
@@ -3173,13 +3398,13 @@
         <v>486546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>842</v>
@@ -3188,13 +3413,13 @@
         <v>957878</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,49 +3481,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>13349</v>
+        <v>5145</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>16891</v>
+        <v>7259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>30240</v>
+        <v>12404</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,49 +3532,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>614</v>
+        <v>321</v>
       </c>
       <c r="D20" s="7">
-        <v>577979</v>
+        <v>329185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
-        <v>641</v>
+        <v>347</v>
       </c>
       <c r="I20" s="7">
-        <v>761040</v>
+        <v>370503</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
-        <v>1255</v>
+        <v>668</v>
       </c>
       <c r="N20" s="7">
-        <v>1339019</v>
+        <v>699688</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,10 +3583,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3373,10 +3598,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3388,10 +3613,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3405,55 +3630,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>35461</v>
+        <v>8204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H22" s="7">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>56443</v>
+        <v>9632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>91903</v>
+        <v>17836</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,49 +3687,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3196</v>
+        <v>293</v>
       </c>
       <c r="D23" s="7">
-        <v>3358889</v>
+        <v>248794</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="H23" s="7">
-        <v>3285</v>
+        <v>294</v>
       </c>
       <c r="I23" s="7">
-        <v>3488099</v>
+        <v>390537</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M23" s="7">
-        <v>6481</v>
+        <v>587</v>
       </c>
       <c r="N23" s="7">
-        <v>6846989</v>
+        <v>639331</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,63 +3738,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7">
+        <v>35461</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="7">
+        <v>53</v>
+      </c>
+      <c r="I25" s="7">
+        <v>56443</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" s="7">
+        <v>88</v>
+      </c>
+      <c r="N25" s="7">
+        <v>91903</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3196</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3358889</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3285</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3488099</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6481</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6846989</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>128</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
